--- a/nmadb/480052.xlsx
+++ b/nmadb/480052.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="140" windowWidth="20700" windowHeight="13700"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20700" windowHeight="13695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -79,9 +79,6 @@
     <t>Placebo/No intervention</t>
   </si>
   <si>
-    <t>tx</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -140,13 +137,16 @@
   </si>
   <si>
     <t>Yoshida</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,17 +518,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="6"/>
-    <col min="11" max="11" width="29.1640625" customWidth="1"/>
+    <col min="1" max="8" width="8.85546875" style="6"/>
+    <col min="11" max="11" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -542,13 +542,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -564,7 +564,7 @@
         <v>1978</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1994</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -650,7 +650,7 @@
         <v>1995</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>1995</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
@@ -742,7 +742,7 @@
         <v>2000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6">
         <v>5</v>
@@ -788,7 +788,7 @@
         <v>2004</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6">
         <v>6</v>
@@ -836,7 +836,7 @@
         <v>1999</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6">
         <v>7</v>
@@ -870,7 +870,7 @@
         <v>1999</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6">
         <v>8</v>
@@ -904,7 +904,7 @@
         <v>1995</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="6">
         <v>9</v>
@@ -938,7 +938,7 @@
         <v>2005</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>2013</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6">
         <v>11</v>
@@ -1006,7 +1006,7 @@
         <v>2009</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -1040,7 +1040,7 @@
         <v>2000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6">
         <v>13</v>
@@ -1074,7 +1074,7 @@
         <v>2004</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="6">
         <v>14</v>
@@ -1108,7 +1108,7 @@
         <v>2006</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="6">
         <v>15</v>
@@ -1142,7 +1142,7 @@
         <v>2013</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="6">
         <v>16</v>
@@ -1190,7 +1190,7 @@
         <v>2008</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="6">
         <v>17</v>
@@ -1224,7 +1224,7 @@
         <v>2013</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="6">
         <v>18</v>
@@ -1258,7 +1258,7 @@
         <v>2013</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="6">
         <v>19</v>
@@ -1292,7 +1292,7 @@
         <v>2013</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6">
         <v>20</v>
@@ -1333,12 +1333,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1350,12 +1350,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
